--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-08_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-08_end.xlsx
@@ -712,7 +712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   My little "leader" of Rhodes Island...
+    <t xml:space="preserve">[name="Ch'en"]   My little 'leader' of Rhodes Island...
 </t>
   </si>
   <si>
